--- a/biology/Médecine/Gangrène_gazeuse/Gangrène_gazeuse.xlsx
+++ b/biology/Médecine/Gangrène_gazeuse/Gangrène_gazeuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gangrène gazeuse (ou myonécrose clostridienne) est une infection microbienne essentiellement provoquée par une bactérie anaérobie, le Clostridium perfringens. L'infection peut apparaître à la suite de certains types de chirurgie ou de blessures. Cette infection a une diffusion rapide, qui aboutit rapidement à la mort en l’absence de traitement. Des vésicules contenant des bulles de gaz se forment près de la zone infectée et sont accompagnées de fièvre, d’un rythme cardiaque et d’une respiration rapides, et souvent, de douleur au site de l’infection.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infections de ce type étaient et restent les plus fréquentes sur des plaies de guerre. C'était l'une des infections les plus redoutées lors des guerres du passé (guerre de Sécession, Première Guerre mondiale), souvent soignée par l'amputation du membre touché ou conclue par la mort du patient.
 Elle se contracte aussi après contamination lors d’une intervention chirurgicale.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gangrène gazeuse se développe généralement à la suite d'une blessure ou d'une intervention chirurgicale. Les blessures à haut risque sont les plaies qui :
 Sont profondes et sévères
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gangrène gazeuse[1] provoque d’importantes douleurs de la région infectée. Au début, la zone est enflée et pâle puis elle peut ensuite devenir rouge, puis bronze et finalement vert noirâtre. La zone est ferme et sensible au toucher. De volumineuses vésicules se forment fréquemment. On peut voir les bulles de gaz dans ces vésicules ou les sentir sous la peau, habituellement au cours de l’évolution de la maladie. Les liquides extraits de la plaie sentent mauvais (odeur putride).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gangrène gazeuse provoque d’importantes douleurs de la région infectée. Au début, la zone est enflée et pâle puis elle peut ensuite devenir rouge, puis bronze et finalement vert noirâtre. La zone est ferme et sensible au toucher. De volumineuses vésicules se forment fréquemment. On peut voir les bulles de gaz dans ces vésicules ou les sentir sous la peau, habituellement au cours de l’évolution de la maladie. Les liquides extraits de la plaie sentent mauvais (odeur putride).
 Rapidement, les patients deviennent fiévreux, se mettent à transpirer et sont très anxieux. Ils peuvent vomir. Souvent les fréquences cardiaque et respiratoire s’accélèrent. Il y a apparition d’une coloration jaune de la peau (jaunisse) chez certains patients. Ces effets sont dus aux toxines sécrétées par la bactérie.
 Typiquement, les patients restent conscients très longtemps, puis la pression artérielle chute dangereusement (choc) et un coma s’installe. Puis apparaît une insuffisance rénale et rapidement, le patient décède.
 Sans traitement, le décès survient chez 100 % des personnes infectées, en général dans les 48 heures. Même avec un traitement, environ une personne sur quatre meurt.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Examen et mise en culture du liquide provenant de la plaie
 Parfois, chirurgie exploratoire ou biopsie pour obtenir un échantillon de tissu
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour prévenir l’apparition d’une gangrène gazeuse, les actes médicaux suivants doivent être réalisés :
 Nettoyage minutieux des plaies
@@ -669,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gangr%C3%A8ne_gazeuse</t>
+          <t>Gangrène_gazeuse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,7 +709,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Antibiotiques
 Chirurgie pour éliminer les tissus morts et infectés
